--- a/Escala.dezembro.xlsx
+++ b/Escala.dezembro.xlsx
@@ -3828,10 +3828,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="47" width="15"/>
-    <col customWidth="1" max="2" min="2" style="47" width="27"/>
-    <col customWidth="1" max="3" min="3" style="47" width="28"/>
-    <col customWidth="1" max="4" min="4" style="47" width="22"/>
+    <col customWidth="1" max="1" min="1" style="47" width="14"/>
+    <col customWidth="1" max="2" min="2" style="47" width="26"/>
+    <col customWidth="1" max="3" min="3" style="47" width="26"/>
+    <col customWidth="1" max="4" min="4" style="47" width="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4433,7 +4433,7 @@
       <c r="D35" s="56" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="51" t="inlineStr">
+      <c r="A36" s="52" t="inlineStr">
         <is>
           <t>VERMELHA</t>
         </is>
@@ -4629,61 +4629,75 @@
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="58" t="inlineStr">
         <is>
           <t>São José dos Campos, 13 de agosto de 2019</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" s="58" t="n"/>
+      <c r="C48" s="58" t="n"/>
+      <c r="D48" s="58" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="58" t="n"/>
+      <c r="B49" s="58" t="n"/>
+      <c r="C49" s="58" t="n"/>
+      <c r="D49" s="58" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>__________________________________</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>__________________________________</t>
-        </is>
-      </c>
+      <c r="A50" s="58" t="inlineStr">
+        <is>
+          <t>_____________________________________</t>
+        </is>
+      </c>
+      <c r="B50" s="58" t="n"/>
+      <c r="C50" s="58" t="inlineStr">
+        <is>
+          <t>_____________________________________</t>
+        </is>
+      </c>
+      <c r="D50" s="58" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="58" t="inlineStr">
         <is>
           <t>Paulo Roberto JUBINI - 1º Ten Esp Aer SVA</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
+      <c r="B51" s="58" t="n"/>
+      <c r="C51" s="58" t="inlineStr">
         <is>
           <t>SOLANGE Ferreira Rodrigues - 1S SAD</t>
         </is>
       </c>
+      <c r="D51" s="58" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="58" t="inlineStr">
         <is>
           <t>Chefe da Seção de Pessoal do CCA-SJ</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
+      <c r="B52" s="58" t="n"/>
+      <c r="C52" s="58" t="inlineStr">
         <is>
           <t>Escalante do CCA-SJ</t>
         </is>
       </c>
+      <c r="D52" s="58" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <pageMargins bottom="0.5" footer="0.5" header="0.5" left="0.5" right="0.5" top="0.5"/>
 </worksheet>
